--- a/data/pca/factorExposure/factorExposure_2016-06-02.xlsx
+++ b/data/pca/factorExposure/factorExposure_2016-06-02.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +714,88 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.0111947714490806</v>
+        <v>0.01349875563170586</v>
       </c>
       <c r="C2">
-        <v>-0.05400826465437028</v>
+        <v>0.03849790589617955</v>
       </c>
       <c r="D2">
-        <v>-0.04195508496779136</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.05628687658210325</v>
+      </c>
+      <c r="E2">
+        <v>-0.08581045734129633</v>
+      </c>
+      <c r="F2">
+        <v>-0.0853864029466298</v>
+      </c>
+      <c r="G2">
+        <v>-0.00226159471955176</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.0378974006920972</v>
+        <v>0.02455955970657472</v>
       </c>
       <c r="C3">
-        <v>-0.1196141955596553</v>
+        <v>0.07014745370859829</v>
       </c>
       <c r="D3">
-        <v>-0.09943691691905243</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>-0.07644934802398487</v>
+      </c>
+      <c r="E3">
+        <v>-0.06839982963501069</v>
+      </c>
+      <c r="F3">
+        <v>0.02642578993738436</v>
+      </c>
+      <c r="G3">
+        <v>-0.03949219712452589</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.05827396132232216</v>
+        <v>0.05674090475928002</v>
       </c>
       <c r="C4">
-        <v>-0.06285078645636795</v>
+        <v>0.06534029604668101</v>
       </c>
       <c r="D4">
-        <v>-0.02981109871129121</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.05185672552428781</v>
+      </c>
+      <c r="E4">
+        <v>-0.08264456389333674</v>
+      </c>
+      <c r="F4">
+        <v>-0.06166260586788001</v>
+      </c>
+      <c r="G4">
+        <v>-0.07520226168785264</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +806,272 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.03890511321265462</v>
+        <v>0.03494498326232212</v>
       </c>
       <c r="C6">
-        <v>-0.03795078156869151</v>
+        <v>0.02925717854472314</v>
       </c>
       <c r="D6">
-        <v>-0.0341427872575</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.05890672016101475</v>
+      </c>
+      <c r="E6">
+        <v>-0.08629870249479796</v>
+      </c>
+      <c r="F6">
+        <v>-0.04832599729270875</v>
+      </c>
+      <c r="G6">
+        <v>-0.06031714038573331</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.02109376888813951</v>
+        <v>0.01717693333989212</v>
       </c>
       <c r="C7">
-        <v>-0.04845685502214835</v>
+        <v>0.04000079193517652</v>
       </c>
       <c r="D7">
-        <v>0.009308648540596142</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.03248482391469625</v>
+      </c>
+      <c r="E7">
+        <v>-0.0597908737202281</v>
+      </c>
+      <c r="F7">
+        <v>-0.09429622702794954</v>
+      </c>
+      <c r="G7">
+        <v>-0.06683863510920063</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.005090919318125809</v>
+        <v>0.002681678995236142</v>
       </c>
       <c r="C8">
-        <v>-0.03635626811015031</v>
+        <v>0.0322266776522822</v>
       </c>
       <c r="D8">
-        <v>-0.02685849659232722</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.03067054855385913</v>
+      </c>
+      <c r="E8">
+        <v>-0.05852549956864666</v>
+      </c>
+      <c r="F8">
+        <v>-0.03269450260894584</v>
+      </c>
+      <c r="G8">
+        <v>-0.0298192197983674</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.03235996866431709</v>
+        <v>0.03642706411634808</v>
       </c>
       <c r="C9">
-        <v>-0.04947841520797704</v>
+        <v>0.05247139535545014</v>
       </c>
       <c r="D9">
-        <v>-0.01251142820557749</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.0363021391734879</v>
+      </c>
+      <c r="E9">
+        <v>-0.06935914126604119</v>
+      </c>
+      <c r="F9">
+        <v>-0.0737087829042742</v>
+      </c>
+      <c r="G9">
+        <v>-0.06555395248727049</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.08319815787149772</v>
+        <v>0.1052038464007427</v>
       </c>
       <c r="C10">
-        <v>0.1863001635659674</v>
+        <v>-0.1941387728456505</v>
       </c>
       <c r="D10">
-        <v>0.003808398810547132</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.01125346075598736</v>
+      </c>
+      <c r="E10">
+        <v>-0.04222729475879881</v>
+      </c>
+      <c r="F10">
+        <v>-0.02502326827973351</v>
+      </c>
+      <c r="G10">
+        <v>-0.02506296502754213</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.04011173337589562</v>
+        <v>0.03557857601094758</v>
       </c>
       <c r="C11">
-        <v>-0.05456378580068247</v>
+        <v>0.04944848206274711</v>
       </c>
       <c r="D11">
-        <v>-0.009114821028488885</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.03046796119142207</v>
+      </c>
+      <c r="E11">
+        <v>-0.02358359664520056</v>
+      </c>
+      <c r="F11">
+        <v>-0.05706867056418514</v>
+      </c>
+      <c r="G11">
+        <v>-0.05146378160972908</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>-0.04185961333285274</v>
+        <v>0.03762513295516872</v>
       </c>
       <c r="C12">
-        <v>-0.04972661912466059</v>
+        <v>0.04678596255588935</v>
       </c>
       <c r="D12">
-        <v>-0.0007448682723278121</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.0240717538743406</v>
+      </c>
+      <c r="E12">
+        <v>-0.03177153993424524</v>
+      </c>
+      <c r="F12">
+        <v>-0.05888187764623987</v>
+      </c>
+      <c r="G12">
+        <v>-0.04839497349927219</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>-0.01188076850319264</v>
+        <v>0.01011323163265799</v>
       </c>
       <c r="C13">
-        <v>-0.05460799329125765</v>
+        <v>0.04337866527750203</v>
       </c>
       <c r="D13">
-        <v>-0.008804621779962864</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.04280870275342225</v>
+      </c>
+      <c r="E13">
+        <v>-0.09492997846601517</v>
+      </c>
+      <c r="F13">
+        <v>-0.08428154154083541</v>
+      </c>
+      <c r="G13">
+        <v>-0.07433830474074833</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>-0.006270415506508773</v>
+        <v>0.00365089272796461</v>
       </c>
       <c r="C14">
-        <v>-0.04280485789419609</v>
+        <v>0.03432783902284075</v>
       </c>
       <c r="D14">
-        <v>0.0131528540402693</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.02216929996458022</v>
+      </c>
+      <c r="E14">
+        <v>-0.04793816601843061</v>
+      </c>
+      <c r="F14">
+        <v>-0.09389743857052953</v>
+      </c>
+      <c r="G14">
+        <v>-0.05259805136741152</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>-0.0001755367520450027</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>0.004811074599060865</v>
       </c>
       <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.00652257182038199</v>
+      </c>
+      <c r="E15">
+        <v>-0.003911492616738292</v>
+      </c>
+      <c r="F15">
+        <v>-0.006523814280511932</v>
+      </c>
+      <c r="G15">
+        <v>-0.004262337365740753</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>-0.03679474906568354</v>
+        <v>0.03359398678315233</v>
       </c>
       <c r="C16">
-        <v>-0.05029608412458066</v>
+        <v>0.04589010295514785</v>
       </c>
       <c r="D16">
-        <v>-0.005208953742491627</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.02345952029420355</v>
+      </c>
+      <c r="E16">
+        <v>-0.03804020986993734</v>
+      </c>
+      <c r="F16">
+        <v>-0.06319850659864674</v>
+      </c>
+      <c r="G16">
+        <v>-0.037397239292544</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1082,19 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1105,203 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>-0.02024600175189882</v>
+        <v>0.01564253284823467</v>
       </c>
       <c r="C19">
-        <v>-0.06525623986257044</v>
+        <v>0.04711459957291571</v>
       </c>
       <c r="D19">
-        <v>-0.09139036978373279</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>-0.08917281839933926</v>
+      </c>
+      <c r="E19">
+        <v>-0.1097086277500948</v>
+      </c>
+      <c r="F19">
+        <v>-0.07939280908622104</v>
+      </c>
+      <c r="G19">
+        <v>-0.02360019385803552</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>-0.0152804879139999</v>
+        <v>0.01247723089341225</v>
       </c>
       <c r="C20">
-        <v>-0.04922196609358231</v>
+        <v>0.03959093136547414</v>
       </c>
       <c r="D20">
-        <v>-0.009893308818247721</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.03076476459517141</v>
+      </c>
+      <c r="E20">
+        <v>-0.07522179669030366</v>
+      </c>
+      <c r="F20">
+        <v>-0.06941427708527638</v>
+      </c>
+      <c r="G20">
+        <v>-0.04895991751625115</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>-0.008654766743375251</v>
+        <v>0.008362216053426672</v>
       </c>
       <c r="C21">
-        <v>-0.05157158221764646</v>
+        <v>0.04301447542650778</v>
       </c>
       <c r="D21">
-        <v>-0.03716479348422658</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.05729834891979649</v>
+      </c>
+      <c r="E21">
+        <v>-0.1151891775514495</v>
+      </c>
+      <c r="F21">
+        <v>-0.1110274231219198</v>
+      </c>
+      <c r="G21">
+        <v>-0.07513995078002865</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0.0009095599802668187</v>
+        <v>0.00252424700773637</v>
       </c>
       <c r="C22">
-        <v>-0.0006425167943411554</v>
+        <v>0.02608430359599163</v>
       </c>
       <c r="D22">
-        <v>-0.002061254488221635</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.04131242072844061</v>
+      </c>
+      <c r="E22">
+        <v>-0.03948666676268004</v>
+      </c>
+      <c r="F22">
+        <v>-0.001166824324180039</v>
+      </c>
+      <c r="G22">
+        <v>-0.05259653160284457</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0.0009152220071866888</v>
+        <v>0.002597120581916313</v>
       </c>
       <c r="C23">
-        <v>-0.0006426108587524965</v>
+        <v>0.02624329280554206</v>
       </c>
       <c r="D23">
-        <v>-0.002067276810939144</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.04094503447943464</v>
+      </c>
+      <c r="E23">
+        <v>-0.03974272680270751</v>
+      </c>
+      <c r="F23">
+        <v>-0.0008684756977628154</v>
+      </c>
+      <c r="G23">
+        <v>-0.05267699083871042</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>-0.03368105389113047</v>
+        <v>0.03368407706358729</v>
       </c>
       <c r="C24">
-        <v>-0.05125188597110828</v>
+        <v>0.05316886366114881</v>
       </c>
       <c r="D24">
-        <v>-0.005684823391164415</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.02339290598728136</v>
+      </c>
+      <c r="E24">
+        <v>-0.03885951100946454</v>
+      </c>
+      <c r="F24">
+        <v>-0.06670217311369173</v>
+      </c>
+      <c r="G24">
+        <v>-0.04786060561085546</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>-0.04677415771280379</v>
+        <v>0.04280952769419268</v>
       </c>
       <c r="C25">
-        <v>-0.06338258141334988</v>
+        <v>0.05761162591942059</v>
       </c>
       <c r="D25">
-        <v>0.004209311696043033</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.02302229599149975</v>
+      </c>
+      <c r="E25">
+        <v>-0.02932967048845849</v>
+      </c>
+      <c r="F25">
+        <v>-0.06149920611840837</v>
+      </c>
+      <c r="G25">
+        <v>-0.06359223554434459</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>-0.01502738905778978</v>
+        <v>0.01424447193630562</v>
       </c>
       <c r="C26">
-        <v>-0.01947706230977282</v>
+        <v>0.01810183125076081</v>
       </c>
       <c r="D26">
-        <v>-0.001545782686633215</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.02190346034660285</v>
+      </c>
+      <c r="E26">
+        <v>-0.04839263511391569</v>
+      </c>
+      <c r="F26">
+        <v>-0.06915232695412894</v>
+      </c>
+      <c r="G26">
+        <v>-0.02577005992517804</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,108 +1312,180 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>-0.09807219978054847</v>
+        <v>0.1401745005353965</v>
       </c>
       <c r="C28">
-        <v>0.2398282023945668</v>
+        <v>-0.2479253277174222</v>
       </c>
       <c r="D28">
-        <v>0.003715018222742309</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.02695942408092924</v>
+      </c>
+      <c r="E28">
+        <v>-0.0574734302835811</v>
+      </c>
+      <c r="F28">
+        <v>-0.04149387604577121</v>
+      </c>
+      <c r="G28">
+        <v>-0.04504087607022161</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>-0.005779378563341515</v>
+        <v>0.004517848728482872</v>
       </c>
       <c r="C29">
-        <v>-0.03475925623481873</v>
+        <v>0.03043050081455032</v>
       </c>
       <c r="D29">
-        <v>0.01726339477666037</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.01564513290782526</v>
+      </c>
+      <c r="E29">
+        <v>-0.04632983218977598</v>
+      </c>
+      <c r="F29">
+        <v>-0.08297199861237106</v>
+      </c>
+      <c r="G29">
+        <v>-0.06154976457073354</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>-0.04365255501080845</v>
+        <v>0.03969629702005532</v>
       </c>
       <c r="C30">
-        <v>-0.05622048033208061</v>
+        <v>0.05789317339622452</v>
       </c>
       <c r="D30">
-        <v>-0.06555151190486309</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.09687150748130434</v>
+      </c>
+      <c r="E30">
+        <v>-0.0750410840681416</v>
+      </c>
+      <c r="F30">
+        <v>-0.08625995674308649</v>
+      </c>
+      <c r="G30">
+        <v>-0.03831275456362542</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>-0.05692618608975558</v>
+        <v>0.05636317187990892</v>
       </c>
       <c r="C31">
-        <v>-0.04637465927998955</v>
+        <v>0.06201579503887045</v>
       </c>
       <c r="D31">
-        <v>0.02927029404298976</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.0153066023125116</v>
+      </c>
+      <c r="E31">
+        <v>-0.06533748071420892</v>
+      </c>
+      <c r="F31">
+        <v>-0.0466044148124021</v>
+      </c>
+      <c r="G31">
+        <v>-0.07700520281765212</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>0.001205717229913697</v>
+        <v>0.00526268752703072</v>
       </c>
       <c r="C32">
-        <v>-0.04030070218583503</v>
+        <v>0.03334013490944742</v>
       </c>
       <c r="D32">
-        <v>-0.04737190391489301</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.05228184692257865</v>
+      </c>
+      <c r="E32">
+        <v>-0.05705316841590446</v>
+      </c>
+      <c r="F32">
+        <v>-0.07186398825364389</v>
+      </c>
+      <c r="G32">
+        <v>-0.03119304486569333</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>-0.02833624578248822</v>
+        <v>0.02464998292480493</v>
       </c>
       <c r="C33">
-        <v>-0.06423753325051057</v>
+        <v>0.05573496732813927</v>
       </c>
       <c r="D33">
-        <v>-0.03952861711035464</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.06982688108563936</v>
+      </c>
+      <c r="E33">
+        <v>-0.08785277328162898</v>
+      </c>
+      <c r="F33">
+        <v>-0.09754981959506406</v>
+      </c>
+      <c r="G33">
+        <v>-0.07525302034538621</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>-0.04406630506130178</v>
+        <v>0.03993438817376414</v>
       </c>
       <c r="C34">
-        <v>-0.06865618953636118</v>
+        <v>0.06572550013547988</v>
       </c>
       <c r="D34">
-        <v>-0.009960630572487722</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.03604397828168027</v>
+      </c>
+      <c r="E34">
+        <v>-0.01159887683545163</v>
+      </c>
+      <c r="F34">
+        <v>-0.06954622941356815</v>
+      </c>
+      <c r="G34">
+        <v>-0.05053468957392913</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1181,24 +1496,42 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>-0.0157258410937713</v>
+        <v>0.01396182945909533</v>
       </c>
       <c r="C36">
-        <v>-0.01780909680572032</v>
+        <v>0.01375782644914995</v>
       </c>
       <c r="D36">
-        <v>0.004972413139917331</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.02055483331499669</v>
+      </c>
+      <c r="E36">
+        <v>-0.05601324642780731</v>
+      </c>
+      <c r="F36">
+        <v>-0.06505766032381947</v>
+      </c>
+      <c r="G36">
+        <v>-0.04683833562471671</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1542,111 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>-0.02924243518925271</v>
+        <v>0.02299997406572617</v>
       </c>
       <c r="C38">
-        <v>-0.03075191807321528</v>
+        <v>0.0232997808400815</v>
       </c>
       <c r="D38">
-        <v>0.01501046788003335</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.01762101531792223</v>
+      </c>
+      <c r="E38">
+        <v>-0.04769983633203299</v>
+      </c>
+      <c r="F38">
+        <v>-0.05263121513297896</v>
+      </c>
+      <c r="G38">
+        <v>-0.03189486127006457</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>-0.04458869339061736</v>
+        <v>0.03873849916789322</v>
       </c>
       <c r="C39">
-        <v>-0.06698480562367712</v>
+        <v>0.06504758942402672</v>
       </c>
       <c r="D39">
-        <v>-0.0129811389212776</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.04766197339649123</v>
+      </c>
+      <c r="E39">
+        <v>-0.04415548844366304</v>
+      </c>
+      <c r="F39">
+        <v>-0.08642682825084314</v>
+      </c>
+      <c r="G39">
+        <v>-0.03625625151880684</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>-0.01245173019398914</v>
+        <v>0.01294521308761332</v>
       </c>
       <c r="C40">
-        <v>-0.05261839655721614</v>
+        <v>0.03772807527260855</v>
       </c>
       <c r="D40">
-        <v>-0.01677103903135965</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.02774977131757241</v>
+      </c>
+      <c r="E40">
+        <v>-0.08160480099099081</v>
+      </c>
+      <c r="F40">
+        <v>-0.05828664561143619</v>
+      </c>
+      <c r="G40">
+        <v>-0.08606773568906817</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>-0.02147450032376215</v>
+        <v>0.0190658843620469</v>
       </c>
       <c r="C41">
-        <v>-0.01493138406509651</v>
+        <v>0.01115576143520323</v>
       </c>
       <c r="D41">
-        <v>-0.002461243152351954</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.01477950304278275</v>
+      </c>
+      <c r="E41">
+        <v>-0.05709307497804449</v>
+      </c>
+      <c r="F41">
+        <v>-0.05934118343907691</v>
+      </c>
+      <c r="G41">
+        <v>-0.03914620360992692</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1657,65 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>-0.03845000347640166</v>
+        <v>0.02905489077627286</v>
       </c>
       <c r="C43">
-        <v>-0.03528614415397432</v>
+        <v>0.02559294031757363</v>
       </c>
       <c r="D43">
-        <v>-0.02905050896170168</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.04132127927060036</v>
+      </c>
+      <c r="E43">
+        <v>-0.072661174045141</v>
+      </c>
+      <c r="F43">
+        <v>-0.06107329147790078</v>
+      </c>
+      <c r="G43">
+        <v>-0.06358024770910876</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>-0.01157577877318494</v>
+        <v>0.01363563566384481</v>
       </c>
       <c r="C44">
-        <v>-0.06852564079222201</v>
+        <v>0.04892039534952395</v>
       </c>
       <c r="D44">
-        <v>-0.008662832789466678</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.03071837823768815</v>
+      </c>
+      <c r="E44">
+        <v>-0.08627906999521161</v>
+      </c>
+      <c r="F44">
+        <v>-0.07025427121970813</v>
+      </c>
+      <c r="G44">
+        <v>-0.02852905295852664</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1726,88 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>-0.007226302758326796</v>
+        <v>0.008172687589687668</v>
       </c>
       <c r="C46">
-        <v>-0.03062919232157048</v>
+        <v>0.03009176660962294</v>
       </c>
       <c r="D46">
-        <v>0.01889903396682009</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.008905331038239947</v>
+      </c>
+      <c r="E46">
+        <v>-0.0545948618105724</v>
+      </c>
+      <c r="F46">
+        <v>-0.09740187128314194</v>
+      </c>
+      <c r="G46">
+        <v>-0.05876965569108693</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>-0.08286006323208207</v>
+        <v>0.08769511706186288</v>
       </c>
       <c r="C47">
-        <v>-0.07274931475542032</v>
+        <v>0.08260992618845135</v>
       </c>
       <c r="D47">
-        <v>0.02604591172410146</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.02204251189670156</v>
+      </c>
+      <c r="E47">
+        <v>-0.06743499963977115</v>
+      </c>
+      <c r="F47">
+        <v>-0.04473069034787273</v>
+      </c>
+      <c r="G47">
+        <v>-0.07617803742225886</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>-0.01789887903517149</v>
+        <v>0.01610468097878283</v>
       </c>
       <c r="C48">
-        <v>-0.01611727506189291</v>
+        <v>0.01714150445777608</v>
       </c>
       <c r="D48">
-        <v>0.01741591074675098</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.00978409216736148</v>
+      </c>
+      <c r="E48">
+        <v>-0.06608860313670858</v>
+      </c>
+      <c r="F48">
+        <v>-0.08215915920953067</v>
+      </c>
+      <c r="G48">
+        <v>-0.05452521051318842</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1818,65 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>-0.07922499447330894</v>
+        <v>0.06995927070639206</v>
       </c>
       <c r="C50">
-        <v>-0.0833832619656297</v>
+        <v>0.07684870590110887</v>
       </c>
       <c r="D50">
-        <v>0.02734847075797275</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.007654123086423085</v>
+      </c>
+      <c r="E50">
+        <v>-0.07399591806317658</v>
+      </c>
+      <c r="F50">
+        <v>-0.02302436788590375</v>
+      </c>
+      <c r="G50">
+        <v>-0.0930232763726358</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>-0.01427231585019466</v>
+        <v>0.009361070439053806</v>
       </c>
       <c r="C51">
-        <v>-0.05180233513963345</v>
+        <v>0.03224533307868472</v>
       </c>
       <c r="D51">
-        <v>-0.02998454592363492</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.05093234702727925</v>
+      </c>
+      <c r="E51">
+        <v>-0.04738106793101634</v>
+      </c>
+      <c r="F51">
+        <v>-0.08264084565629272</v>
+      </c>
+      <c r="G51">
+        <v>-0.03263534133883722</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +1887,111 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>-0.08185561804153735</v>
+        <v>0.09437973691533705</v>
       </c>
       <c r="C53">
-        <v>-0.07792304112860138</v>
+        <v>0.08835189234314636</v>
       </c>
       <c r="D53">
-        <v>0.05108007663995626</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.05375817463850199</v>
+      </c>
+      <c r="E53">
+        <v>-0.06082535004937979</v>
+      </c>
+      <c r="F53">
+        <v>-0.04207063432065068</v>
+      </c>
+      <c r="G53">
+        <v>-0.07896858045508751</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>-0.03085874433246518</v>
+        <v>0.02704233323454878</v>
       </c>
       <c r="C54">
-        <v>-0.03805759998938103</v>
+        <v>0.0328191578325585</v>
       </c>
       <c r="D54">
-        <v>0.003351936418948573</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.02389767780024313</v>
+      </c>
+      <c r="E54">
+        <v>-0.05370416405305296</v>
+      </c>
+      <c r="F54">
+        <v>-0.08720282822933698</v>
+      </c>
+      <c r="G54">
+        <v>-0.05999494503902331</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>-0.07504419558214818</v>
+        <v>0.0857218167062835</v>
       </c>
       <c r="C55">
-        <v>-0.05914864712534495</v>
+        <v>0.07113105155764249</v>
       </c>
       <c r="D55">
-        <v>0.05419571310036307</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.05712294760888581</v>
+      </c>
+      <c r="E55">
+        <v>-0.04366442228908162</v>
+      </c>
+      <c r="F55">
+        <v>-0.02346276624069421</v>
+      </c>
+      <c r="G55">
+        <v>-0.059043186407179</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>-0.1464388327277713</v>
+        <v>0.1484625196899382</v>
       </c>
       <c r="C56">
-        <v>-0.0952176644283822</v>
+        <v>0.1079305875195303</v>
       </c>
       <c r="D56">
-        <v>0.04743538078792014</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.05407654363415989</v>
+      </c>
+      <c r="E56">
+        <v>-0.04184318614975476</v>
+      </c>
+      <c r="F56">
+        <v>0.001718514678425517</v>
+      </c>
+      <c r="G56">
+        <v>-0.04320420027892038</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,66 +2002,111 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>-0.04560671144282209</v>
+        <v>0.02801943365954192</v>
       </c>
       <c r="C58">
-        <v>-0.02942378781212253</v>
+        <v>0.0251925582062414</v>
       </c>
       <c r="D58">
-        <v>-0.7458877503537328</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.3827676068846431</v>
+      </c>
+      <c r="E58">
+        <v>-0.6636974801155717</v>
+      </c>
+      <c r="F58">
+        <v>0.4878943720491314</v>
+      </c>
+      <c r="G58">
+        <v>0.3080233535834491</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>-0.1366060841542906</v>
+        <v>0.1474518466666468</v>
       </c>
       <c r="C59">
-        <v>0.1949228660802966</v>
+        <v>-0.1862087049867452</v>
       </c>
       <c r="D59">
-        <v>-0.02559325226359316</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.02616983928014374</v>
+      </c>
+      <c r="E59">
+        <v>-0.02819616509271948</v>
+      </c>
+      <c r="F59">
+        <v>-0.02853294371793471</v>
+      </c>
+      <c r="G59">
+        <v>0.02011784486774511</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>-0.3076040269997266</v>
+        <v>0.2792845795969816</v>
       </c>
       <c r="C60">
-        <v>-0.1110986124987991</v>
+        <v>0.107463294267609</v>
       </c>
       <c r="D60">
-        <v>-0.1407055094989928</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.2603918092304666</v>
+      </c>
+      <c r="E60">
+        <v>0.241376659859002</v>
+      </c>
+      <c r="F60">
+        <v>0.07437366616837268</v>
+      </c>
+      <c r="G60">
+        <v>-0.04074124839328558</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>-0.04217177742618727</v>
+        <v>0.03996473449799363</v>
       </c>
       <c r="C61">
-        <v>-0.06555205384045416</v>
+        <v>0.06129157247930566</v>
       </c>
       <c r="D61">
-        <v>-0.009766269697095131</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.03888680956984775</v>
+      </c>
+      <c r="E61">
+        <v>-0.04739784213825642</v>
+      </c>
+      <c r="F61">
+        <v>-0.06957503690225093</v>
+      </c>
+      <c r="G61">
+        <v>-0.05512846860104079</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2117,180 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>-0.01493136728700785</v>
+        <v>0.01440131677434323</v>
       </c>
       <c r="C63">
-        <v>-0.0351611583048907</v>
+        <v>0.03236635716128536</v>
       </c>
       <c r="D63">
-        <v>0.01411626273047274</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.01528038168288135</v>
+      </c>
+      <c r="E63">
+        <v>-0.05876835287524953</v>
+      </c>
+      <c r="F63">
+        <v>-0.05467084683479662</v>
+      </c>
+      <c r="G63">
+        <v>-0.06411925357546032</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>-0.04858237971713898</v>
+        <v>0.05471839086686655</v>
       </c>
       <c r="C64">
-        <v>-0.04846983165075697</v>
+        <v>0.05801792417923327</v>
       </c>
       <c r="D64">
-        <v>0.001867904541950481</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.002940495357655733</v>
+      </c>
+      <c r="E64">
+        <v>-0.0346127521520161</v>
+      </c>
+      <c r="F64">
+        <v>-0.07322652635133078</v>
+      </c>
+      <c r="G64">
+        <v>-0.0474364063437366</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>-0.08209959519555873</v>
+        <v>0.06665074885330896</v>
       </c>
       <c r="C65">
-        <v>-0.02981802465205262</v>
+        <v>0.0286165874781121</v>
       </c>
       <c r="D65">
-        <v>-0.05937856460194255</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.08595977958841108</v>
+      </c>
+      <c r="E65">
+        <v>-0.05409273116439679</v>
+      </c>
+      <c r="F65">
+        <v>-0.01108719129726238</v>
+      </c>
+      <c r="G65">
+        <v>-0.02068252728862981</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>-0.05969142354407317</v>
+        <v>0.05020666025156349</v>
       </c>
       <c r="C66">
-        <v>-0.09267975324527675</v>
+        <v>0.08367891568296344</v>
       </c>
       <c r="D66">
-        <v>-0.03195970322965664</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.07183793323095153</v>
+      </c>
+      <c r="E66">
+        <v>-0.05241436947303288</v>
+      </c>
+      <c r="F66">
+        <v>-0.08368887598026933</v>
+      </c>
+      <c r="G66">
+        <v>-0.05386639853202359</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>-0.05106671232177779</v>
+        <v>0.04472292913116987</v>
       </c>
       <c r="C67">
-        <v>-0.03303611416972622</v>
+        <v>0.02899823318097422</v>
       </c>
       <c r="D67">
-        <v>0.02140011640948488</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.002625776997251868</v>
+      </c>
+      <c r="E67">
+        <v>-0.02544186270069273</v>
+      </c>
+      <c r="F67">
+        <v>-0.03834502575546466</v>
+      </c>
+      <c r="G67">
+        <v>-0.02788529523503277</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>-0.1348912820360033</v>
+        <v>0.1554936292316985</v>
       </c>
       <c r="C68">
-        <v>0.2775162378447288</v>
+        <v>-0.2423248676661605</v>
       </c>
       <c r="D68">
-        <v>0.002855351642092807</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.01535796647226787</v>
+      </c>
+      <c r="E68">
+        <v>-0.03989076558431541</v>
+      </c>
+      <c r="F68">
+        <v>-0.01188641342517401</v>
+      </c>
+      <c r="G68">
+        <v>-0.02883736547018096</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>-0.08932056592975567</v>
+        <v>0.08633002151498544</v>
       </c>
       <c r="C69">
-        <v>-0.07266394252985166</v>
+        <v>0.09025592120098733</v>
       </c>
       <c r="D69">
-        <v>0.04153094273428756</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.01303586277491975</v>
+      </c>
+      <c r="E69">
+        <v>-0.05262776206290223</v>
+      </c>
+      <c r="F69">
+        <v>-0.07158279071059563</v>
+      </c>
+      <c r="G69">
+        <v>-0.06654204113856058</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2301,594 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>-0.1234909557489206</v>
+        <v>0.1474310654889159</v>
       </c>
       <c r="C71">
-        <v>0.2489526532362863</v>
+        <v>-0.2367672157822896</v>
       </c>
       <c r="D71">
-        <v>-0.02006797226046144</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.00117311884148119</v>
+      </c>
+      <c r="E71">
+        <v>-0.06098783695426217</v>
+      </c>
+      <c r="F71">
+        <v>-0.03070563876316725</v>
+      </c>
+      <c r="G71">
+        <v>-0.0581670415198915</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>-0.09043726437893743</v>
+        <v>0.09919716625598125</v>
       </c>
       <c r="C72">
-        <v>-0.05941584656022308</v>
+        <v>0.05989493262250982</v>
       </c>
       <c r="D72">
-        <v>-0.0009115924946074557</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.02574107472939568</v>
+      </c>
+      <c r="E72">
+        <v>-0.02490703756178872</v>
+      </c>
+      <c r="F72">
+        <v>-0.04996735494591119</v>
+      </c>
+      <c r="G72">
+        <v>-0.0643101706228264</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>-0.4032448879264602</v>
+        <v>0.3417156084480942</v>
       </c>
       <c r="C73">
-        <v>-0.05721529270160743</v>
+        <v>0.07352842593018755</v>
       </c>
       <c r="D73">
-        <v>-0.34914704001218</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.5181346955582452</v>
+      </c>
+      <c r="E73">
+        <v>0.4417253235989639</v>
+      </c>
+      <c r="F73">
+        <v>0.2316719937260281</v>
+      </c>
+      <c r="G73">
+        <v>-0.03376760236830665</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>-0.1030076646854883</v>
+        <v>0.1089339160846836</v>
       </c>
       <c r="C74">
-        <v>-0.09614488375763822</v>
+        <v>0.09658364383405757</v>
       </c>
       <c r="D74">
-        <v>0.02553272230548215</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.04274709622687443</v>
+      </c>
+      <c r="E74">
+        <v>-0.062826828447987</v>
+      </c>
+      <c r="F74">
+        <v>0.0007071795766178356</v>
+      </c>
+      <c r="G74">
+        <v>-0.06778580589447331</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>-0.2526827192351301</v>
+        <v>0.257130869597209</v>
       </c>
       <c r="C75">
-        <v>-0.1071261356016305</v>
+        <v>0.1333090578840797</v>
       </c>
       <c r="D75">
-        <v>0.1121458685031858</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.1500205313897684</v>
+      </c>
+      <c r="E75">
+        <v>-0.04625339321548513</v>
+      </c>
+      <c r="F75">
+        <v>0.04291258248518393</v>
+      </c>
+      <c r="G75">
+        <v>-0.01463055136175949</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>-0.1115144755824887</v>
+        <v>0.1261171239556509</v>
       </c>
       <c r="C76">
-        <v>-0.08349515563906526</v>
+        <v>0.09636795963158572</v>
       </c>
       <c r="D76">
-        <v>0.05362146450904601</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.07178295524455057</v>
+      </c>
+      <c r="E76">
+        <v>-0.06779323039059043</v>
+      </c>
+      <c r="F76">
+        <v>-0.02027664789712972</v>
+      </c>
+      <c r="G76">
+        <v>-0.05501646628491036</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>-0.07621168081868557</v>
+        <v>0.06230107831854537</v>
       </c>
       <c r="C77">
-        <v>-0.05652729078923423</v>
+        <v>0.06566108009932295</v>
       </c>
       <c r="D77">
-        <v>-0.04876225803788618</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.05383494998842172</v>
+      </c>
+      <c r="E77">
+        <v>-0.09755288339142215</v>
+      </c>
+      <c r="F77">
+        <v>-0.1558205277605421</v>
+      </c>
+      <c r="G77">
+        <v>0.1080514081239747</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>-0.04772168755710875</v>
+        <v>0.0445960697498827</v>
       </c>
       <c r="C78">
-        <v>-0.04965626753874743</v>
+        <v>0.05647752630532658</v>
       </c>
       <c r="D78">
-        <v>-0.0160530025709886</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.05631406886083468</v>
+      </c>
+      <c r="E78">
+        <v>-0.0542006899041277</v>
+      </c>
+      <c r="F78">
+        <v>-0.07767169761814699</v>
+      </c>
+      <c r="G78">
+        <v>-0.04745067243258964</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>0.02915331389904489</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>0.04574138421853036</v>
       </c>
       <c r="D79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.07391017157216602</v>
+      </c>
+      <c r="E79">
+        <v>-0.06008166420360717</v>
+      </c>
+      <c r="F79">
+        <v>0.01045135332170127</v>
+      </c>
+      <c r="G79">
+        <v>-0.06113039610157106</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>-0.03796955399006976</v>
+        <v>0.02960859233589945</v>
       </c>
       <c r="C80">
-        <v>-0.05213385193782458</v>
+        <v>0.05134927307370511</v>
       </c>
       <c r="D80">
-        <v>-0.02488917764143181</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.03698156488481869</v>
+      </c>
+      <c r="E80">
+        <v>-0.01997404271808498</v>
+      </c>
+      <c r="F80">
+        <v>-0.04514903842965871</v>
+      </c>
+      <c r="G80">
+        <v>0.02622459252550639</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>-0.1376751474681933</v>
+        <v>0.1379018406119482</v>
       </c>
       <c r="C81">
-        <v>-0.07836606752440523</v>
+        <v>0.09537034506918338</v>
       </c>
       <c r="D81">
-        <v>0.07687574300495874</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.1184591001813595</v>
+      </c>
+      <c r="E81">
+        <v>-0.06874217021430636</v>
+      </c>
+      <c r="F81">
+        <v>0.0274846286526087</v>
+      </c>
+      <c r="G81">
+        <v>-0.02194518846117037</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>-0.1723868588155917</v>
+        <v>0.2105194069532468</v>
       </c>
       <c r="C82">
-        <v>-0.09431040317385581</v>
+        <v>0.1587597095851084</v>
       </c>
       <c r="D82">
-        <v>0.1754298219734544</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.245465339538578</v>
+      </c>
+      <c r="E82">
+        <v>0.0199236228622125</v>
+      </c>
+      <c r="F82">
+        <v>-0.05326515899739506</v>
+      </c>
+      <c r="G82">
+        <v>-0.04122121818304224</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>-0.03916014832797316</v>
+        <v>0.02696432028188712</v>
       </c>
       <c r="C83">
-        <v>-0.03012624683273061</v>
+        <v>0.04257649937917187</v>
       </c>
       <c r="D83">
-        <v>-0.026815393922972</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.02752553249083688</v>
+      </c>
+      <c r="E83">
+        <v>-0.02344541469005845</v>
+      </c>
+      <c r="F83">
+        <v>-0.04681251364080111</v>
+      </c>
+      <c r="G83">
+        <v>0.001865777990364498</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>0.0001276124802049102</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>-0.0007521547819161649</v>
       </c>
       <c r="D84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.001141776173183053</v>
+      </c>
+      <c r="E84">
+        <v>-0.0007248869141874777</v>
+      </c>
+      <c r="F84">
+        <v>-0.001081942398777141</v>
+      </c>
+      <c r="G84">
+        <v>-0.0005989679638140493</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>-0.2197364285109277</v>
+        <v>0.2028319209802485</v>
       </c>
       <c r="C85">
-        <v>-0.1023577646976418</v>
+        <v>0.1162935311804396</v>
       </c>
       <c r="D85">
-        <v>0.1462415178294495</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.1162912788943164</v>
+      </c>
+      <c r="E85">
+        <v>0.02480060188720713</v>
+      </c>
+      <c r="F85">
+        <v>0.09086687023543467</v>
+      </c>
+      <c r="G85">
+        <v>-0.06171863543021057</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>-0.005899344372209572</v>
+        <v>0.008654804436166827</v>
       </c>
       <c r="C86">
-        <v>-0.02908619642510018</v>
+        <v>0.02038812863677663</v>
       </c>
       <c r="D86">
-        <v>-0.04405457157382014</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.05681344111899263</v>
+      </c>
+      <c r="E86">
+        <v>-0.07274597266889202</v>
+      </c>
+      <c r="F86">
+        <v>-0.116395723587054</v>
+      </c>
+      <c r="G86">
+        <v>-0.05268276764812803</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>-0.02375959041003819</v>
+        <v>0.02407207217876964</v>
       </c>
       <c r="C87">
-        <v>-0.00747298429155584</v>
+        <v>0.0134759489314994</v>
       </c>
       <c r="D87">
-        <v>-0.08690950006965333</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.07887133106456157</v>
+      </c>
+      <c r="E87">
+        <v>-0.1251679731984424</v>
+      </c>
+      <c r="F87">
+        <v>-0.08359995985070984</v>
+      </c>
+      <c r="G87">
+        <v>0.000895815957985994</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>-0.10302898011243</v>
+        <v>0.09054820894303338</v>
       </c>
       <c r="C88">
-        <v>-0.075645078331372</v>
+        <v>0.0642752080858537</v>
       </c>
       <c r="D88">
-        <v>0.02342756621898562</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.004131164573175804</v>
+      </c>
+      <c r="E88">
+        <v>-0.04946694138416165</v>
+      </c>
+      <c r="F88">
+        <v>-0.0773346736537824</v>
+      </c>
+      <c r="G88">
+        <v>-0.01940885857578312</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>-0.1939143331858399</v>
+        <v>0.2251709892946253</v>
       </c>
       <c r="C89">
-        <v>0.3716223653844418</v>
+        <v>-0.3754551959922809</v>
       </c>
       <c r="D89">
-        <v>0.02764761215416517</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.02669405094943372</v>
+      </c>
+      <c r="E89">
+        <v>-0.06512847514663274</v>
+      </c>
+      <c r="F89">
+        <v>-0.09151018730563365</v>
+      </c>
+      <c r="G89">
+        <v>0.02765207692991588</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>-0.1861406113479627</v>
+        <v>0.2044708058138715</v>
       </c>
       <c r="C90">
-        <v>0.3298528369871191</v>
+        <v>-0.3083399707490289</v>
       </c>
       <c r="D90">
-        <v>0.0290171223848049</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.02759109930109483</v>
+      </c>
+      <c r="E90">
+        <v>-0.06636821857645475</v>
+      </c>
+      <c r="F90">
+        <v>-0.04036343530759121</v>
+      </c>
+      <c r="G90">
+        <v>-0.004103478839371529</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>-0.1875414256197154</v>
+        <v>0.1852788796209716</v>
       </c>
       <c r="C91">
-        <v>-0.1289720871530247</v>
+        <v>0.1452736900754631</v>
       </c>
       <c r="D91">
-        <v>0.1048875014044176</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.1256289766361307</v>
+      </c>
+      <c r="E91">
+        <v>-0.04705974378629057</v>
+      </c>
+      <c r="F91">
+        <v>0.01171876575372287</v>
+      </c>
+      <c r="G91">
+        <v>-0.02655328636543858</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>-0.1688214180104821</v>
+        <v>0.1855555009393065</v>
       </c>
       <c r="C92">
-        <v>0.2799259309065877</v>
+        <v>-0.2867684396061257</v>
       </c>
       <c r="D92">
-        <v>0.02242613713627712</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.02992805055967488</v>
+      </c>
+      <c r="E92">
+        <v>-0.06999438448496043</v>
+      </c>
+      <c r="F92">
+        <v>-0.07559560962299278</v>
+      </c>
+      <c r="G92">
+        <v>-0.01501150860278153</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>-0.2073975187404994</v>
+        <v>0.2268952359516266</v>
       </c>
       <c r="C93">
-        <v>0.334278160972059</v>
+        <v>-0.3167681899967069</v>
       </c>
       <c r="D93">
-        <v>0.02868842458939889</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.022371192202935</v>
+      </c>
+      <c r="E93">
+        <v>-0.04126970490314107</v>
+      </c>
+      <c r="F93">
+        <v>-0.01996022230957056</v>
+      </c>
+      <c r="G93">
+        <v>-0.03692434055434939</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>-0.3288270549693349</v>
+        <v>0.3339542981451201</v>
       </c>
       <c r="C94">
-        <v>-0.1613214871135099</v>
+        <v>0.1945680876158616</v>
       </c>
       <c r="D94">
-        <v>0.3332133760905628</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.4320714775865387</v>
+      </c>
+      <c r="E94">
+        <v>-0.006912938299890932</v>
+      </c>
+      <c r="F94">
+        <v>0.2531870771761136</v>
+      </c>
+      <c r="G94">
+        <v>0.4209998008563103</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>-0.1124819874122926</v>
+        <v>0.08346516816641575</v>
       </c>
       <c r="C95">
-        <v>-0.07469571558837207</v>
+        <v>0.06510285825934838</v>
       </c>
       <c r="D95">
-        <v>-0.1320859149364156</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.1841139427554666</v>
+      </c>
+      <c r="E95">
+        <v>0.09525972078940897</v>
+      </c>
+      <c r="F95">
+        <v>-0.5550962926388967</v>
+      </c>
+      <c r="G95">
+        <v>0.7169181482816359</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2899,19 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2922,42 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>-0.1960033434120911</v>
+        <v>0.1875229629628823</v>
       </c>
       <c r="C98">
-        <v>-0.02424130614910493</v>
+        <v>0.04664896001664321</v>
       </c>
       <c r="D98">
-        <v>-0.1200823101498408</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.1978039854476169</v>
+      </c>
+      <c r="E98">
+        <v>0.1349991518007739</v>
+      </c>
+      <c r="F98">
+        <v>0.06127579535783987</v>
+      </c>
+      <c r="G98">
+        <v>-0.08605091421240312</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2968,19 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2991,65 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>-0.005558611913290794</v>
+        <v>0.004496603206471119</v>
       </c>
       <c r="C101">
-        <v>-0.03476454998248664</v>
+        <v>0.0300754149657591</v>
       </c>
       <c r="D101">
-        <v>0.0169632282208491</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.01560383338202604</v>
+      </c>
+      <c r="E101">
+        <v>-0.04701849456725447</v>
+      </c>
+      <c r="F101">
+        <v>-0.08368695693020795</v>
+      </c>
+      <c r="G101">
+        <v>-0.06132016965201833</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>-0.1244238664274286</v>
+        <v>0.125690034947036</v>
       </c>
       <c r="C102">
-        <v>-0.07152921632242271</v>
+        <v>0.1017223678554004</v>
       </c>
       <c r="D102">
-        <v>0.04263949678591049</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>0.05354042207023259</v>
+      </c>
+      <c r="E102">
+        <v>0.01270504382965682</v>
+      </c>
+      <c r="F102">
+        <v>-0.01782461368765657</v>
+      </c>
+      <c r="G102">
+        <v>-0.0007028790439010434</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3060,19 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3081,15 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
         <v>0</v>
       </c>
     </row>
